--- a/1/3/Balance Contable BCCh 2006 a 2021 - Trimestral.xlsx
+++ b/1/3/Balance Contable BCCh 2006 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Serie</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4275,6 +4278,65 @@
         <v>37724</v>
       </c>
     </row>
+    <row r="63" spans="1:19">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63">
+        <v>97712</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>44954</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>51877</v>
+      </c>
+      <c r="G63">
+        <v>880</v>
+      </c>
+      <c r="H63">
+        <v>99378</v>
+      </c>
+      <c r="I63">
+        <v>43335</v>
+      </c>
+      <c r="J63">
+        <v>42794</v>
+      </c>
+      <c r="K63">
+        <v>541</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>7747</v>
+      </c>
+      <c r="O63">
+        <v>43786</v>
+      </c>
+      <c r="P63">
+        <v>4510</v>
+      </c>
+      <c r="Q63">
+        <v>-1666</v>
+      </c>
+      <c r="R63">
+        <v>1329</v>
+      </c>
+      <c r="S63">
+        <v>40010</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
